--- a/cajas-mensuales/mes-9-2023.xlsx
+++ b/cajas-mensuales/mes-9-2023.xlsx
@@ -397,19 +397,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>A</v>
+        <v>fecha</v>
+      </c>
+      <c r="B1" t="str">
+        <v>totalGlobal</v>
+      </c>
+      <c r="C1" t="str">
+        <v>totalEfectivo</v>
+      </c>
+      <c r="D1" t="str">
+        <v>totalDebito</v>
+      </c>
+      <c r="E1" t="str">
+        <v>totalTransferencia</v>
+      </c>
+      <c r="F1" t="str">
+        <v>totalCredito</v>
+      </c>
+      <c r="G1" t="str">
+        <v>totalGastos</v>
+      </c>
+      <c r="H1" t="str">
+        <v>totalGastosNegocio</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2023-09-14</v>
+      </c>
+      <c r="B2" t="str">
+        <v>615</v>
+      </c>
+      <c r="C2" t="str">
+        <v>615</v>
+      </c>
+      <c r="D2" t="str">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <v>0</v>
+      </c>
+      <c r="H2" t="str">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cajas-mensuales/mes-9-2023.xlsx
+++ b/cajas-mensuales/mes-9-2023.xlsx
@@ -430,13 +430,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2023-09-14</v>
+        <v>2023-09-15</v>
       </c>
       <c r="B2" t="str">
-        <v>615</v>
+        <v>369615</v>
       </c>
       <c r="C2" t="str">
-        <v>615</v>
+        <v>369615</v>
       </c>
       <c r="D2" t="str">
         <v>0</v>

--- a/cajas-mensuales/mes-9-2023.xlsx
+++ b/cajas-mensuales/mes-9-2023.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -430,13 +430,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2023-09-15</v>
+        <v>2023-09-17</v>
       </c>
       <c r="B2" t="str">
-        <v>369615</v>
+        <v>123222</v>
       </c>
       <c r="C2" t="str">
-        <v>369615</v>
+        <v>123222</v>
       </c>
       <c r="D2" t="str">
         <v>0</v>
@@ -451,12 +451,90 @@
         <v>0</v>
       </c>
       <c r="H2" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2023-09-18</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2023-09-19</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1200</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1200</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2023-09-25</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1000</v>
+      </c>
+      <c r="C5" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
   </ignoredErrors>
 </worksheet>
 </file>